--- a/biology/Virologie/Tombusvirus/Tombusvirus.xlsx
+++ b/biology/Virologie/Tombusvirus/Tombusvirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tombusvirus est un genre de virus appartenant à la famille des Tombusviridae, sous-famille des Procedovirinae, qui contient 17 espèces acceptées par l'ICTV. Ce sont des virus à ARN à simple brin de polarité positive (ARNmc), rattachés au groupe IV de la classification Baltimore.
 Ces virus infectent une vaste gamme de plantes-hôtes (phytovirus). 
@@ -512,10 +524,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les particules sont des virions non-enveloppés, parasphériques, à symétrie icosaédrique (T=3), d'environ 28 à 34 nm  de  diamètre. La capside est composée de 180 sous-unités protéiques, formées en 30 capsomères hexamériques[2].
-Le génome, non segmenté (monopartite), est un ARN linéaire à simple brin de sens positif, dont la taille varie de 4,5 à 5,4 kbases[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les particules sont des virions non-enveloppés, parasphériques, à symétrie icosaédrique (T=3), d'environ 28 à 34 nm  de  diamètre. La capside est composée de 180 sous-unités protéiques, formées en 30 capsomères hexamériques.
+Le génome, non segmenté (monopartite), est un ARN linéaire à simple brin de sens positif, dont la taille varie de 4,5 à 5,4 kbases.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ICTV[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ICTV :
 Artichoke mottled crinkle virus
 Carnation Italian ringspot virus
 Cucumber Bulgarian latent virus
